--- a/blog/blog.xlsx
+++ b/blog/blog.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjunsingh/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD95D554-FB47-3A4A-9E47-41A4D31B7B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23820" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="blog" sheetId="1" r:id="rId5"/>
+    <sheet name="blog" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -33,17 +55,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Team Members</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Instructions:</t>
     </r>
@@ -52,6 +75,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Fill in only the green portions.  For the activities table, put number 1 in the square under each name if that individual participated in that activity. The number of hours for each individual will be calculated automatically. Adjust the cell size to ensure all text is visible as needed. Add more rows as necessary</t>
     </r>
@@ -135,56 +159,6 @@
     <t>Hours spent</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>KP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>AS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>SO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>HG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>CD</t>
-    </r>
-  </si>
-  <si>
     <t>Joy</t>
   </si>
   <si>
@@ -228,41 +202,48 @@
   </si>
   <si>
     <t>Total team hours over project</t>
+  </si>
+  <si>
+    <t>Repo setup, README</t>
+  </si>
+  <si>
+    <t>Repo initialized, README done</t>
+  </si>
+  <si>
+    <t>Milestone 01 draft</t>
+  </si>
+  <si>
+    <t>milestone01.md committed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -964,328 +945,222 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="106">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,27 +1170,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff006100"/>
-      <rgbColor rgb="ffc6efce"/>
-      <rgbColor rgb="ffd8d8d8"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
     <a:clrScheme name="Office Theme 2007 - 2010">
       <a:dk1>
@@ -1441,7 +1374,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1450,7 +1383,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1459,7 +1392,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1533,7 +1466,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1541,7 +1474,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1559,7 +1492,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1588,7 +1521,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1613,7 +1546,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1638,7 +1571,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1663,7 +1596,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1688,7 +1621,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1713,7 +1646,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1738,7 +1671,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1763,7 +1696,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1788,7 +1721,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1801,9 +1734,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1818,7 +1757,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1826,7 +1765,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1844,7 +1783,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1869,7 +1808,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1894,7 +1833,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1919,7 +1858,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1944,7 +1883,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1969,7 +1908,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1994,7 +1933,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2019,7 +1958,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2044,7 +1983,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2069,7 +2008,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2082,9 +2021,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2098,7 +2043,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2116,7 +2061,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2145,7 +2090,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2170,7 +2115,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2195,7 +2140,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2220,7 +2165,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2245,7 +2190,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2270,7 +2215,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2295,7 +2240,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2320,7 +2265,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2345,7 +2290,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2358,38 +2303,48 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.8516" style="1" customWidth="1"/>
-    <col min="2" max="3" width="2.17188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.67188" style="1" customWidth="1"/>
-    <col min="5" max="7" width="2.17188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="2.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="2.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.8516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6719" style="1" customWidth="1"/>
-    <col min="12" max="18" width="8.85156" style="1" customWidth="1"/>
-    <col min="19" max="19" width="35.6719" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
+    <col min="12" max="18" width="8.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="35.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
+    <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2410,7 +2365,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2431,7 +2386,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2439,12 +2394,12 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="4"/>
-      <c r="H3" t="s" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="97"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="105"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -2452,11 +2407,11 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" t="s" s="9">
+      <c r="S3" s="94" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15.6" customHeight="1">
+    <row r="4" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2464,10 +2419,10 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="8"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="105"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2475,9 +2430,9 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="13"/>
-    </row>
-    <row r="5" ht="29.4" customHeight="1">
+      <c r="S4" s="95"/>
+    </row>
+    <row r="5" spans="1:19" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2485,16 +2440,16 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
-      <c r="H5" t="s" s="14">
+      <c r="H5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I5" t="s" s="15">
+      <c r="I5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J5" t="s" s="16">
+      <c r="J5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="105"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2502,9 +2457,9 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
+      <c r="S5" s="95"/>
+    </row>
+    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2512,16 +2467,16 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="4"/>
-      <c r="H6" t="s" s="17">
+      <c r="H6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I6" t="s" s="18">
+      <c r="I6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J6" t="s" s="19">
+      <c r="J6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2529,9 +2484,9 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
+      <c r="S6" s="95"/>
+    </row>
+    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2539,16 +2494,16 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
-      <c r="H7" t="s" s="21">
+      <c r="H7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I7" t="s" s="22">
+      <c r="I7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J7" t="s" s="23">
+      <c r="J7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2556,9 +2511,9 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
+      <c r="S7" s="95"/>
+    </row>
+    <row r="8" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2566,16 +2521,16 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
-      <c r="H8" t="s" s="21">
+      <c r="H8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I8" t="s" s="22">
+      <c r="I8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J8" t="s" s="23">
+      <c r="J8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2583,9 +2538,9 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="13"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
+      <c r="S8" s="95"/>
+    </row>
+    <row r="9" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2593,16 +2548,16 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
-      <c r="H9" t="s" s="21">
+      <c r="H9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s" s="22">
+      <c r="I9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s" s="23">
+      <c r="J9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2610,9 +2565,9 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="13"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
+      <c r="S9" s="95"/>
+    </row>
+    <row r="10" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2620,10 +2575,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="20"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2631,9 +2586,9 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
+      <c r="S10" s="95"/>
+    </row>
+    <row r="11" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2641,16 +2596,16 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="4"/>
-      <c r="H11" t="s" s="21">
+      <c r="H11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I11" t="s" s="22">
+      <c r="I11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="s" s="23">
+      <c r="J11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2658,9 +2613,9 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="13"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
+      <c r="S11" s="95"/>
+    </row>
+    <row r="12" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2668,9 +2623,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2681,7 +2636,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
+    <row r="13" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2702,8 +2657,8 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="28">
+    <row r="14" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="3"/>
@@ -2725,949 +2680,968 @@
       <c r="R14" s="3"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="29">
+    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s" s="30">
+      <c r="B15" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" t="s" s="32">
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="33">
+      <c r="I15" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="J15" t="s" s="32">
+      <c r="J15" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="K15" t="s" s="32">
+      <c r="K15" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="L15" t="s" s="30">
+      <c r="L15" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="20"/>
-    </row>
-    <row r="16" ht="86.4" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" t="str" s="36" cm="1">
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="1:19" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="100"/>
+      <c r="B16" s="24" t="str" cm="1">
         <f t="array" ref="B16">$J$6</f>
         <v>KP</v>
       </c>
-      <c r="C16" t="str" s="36" cm="1">
+      <c r="C16" s="24" t="str" cm="1">
         <f t="array" ref="C16">$J$7</f>
         <v>AS</v>
       </c>
-      <c r="D16" t="str" s="36" cm="1">
+      <c r="D16" s="24" t="str" cm="1">
         <f t="array" ref="D16">$J$8</f>
         <v>SO</v>
       </c>
-      <c r="E16" t="str" s="36" cm="1">
+      <c r="E16" s="24" t="str" cm="1">
         <f t="array" ref="E16">$J$9</f>
         <v>HG</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" t="str" s="36" cm="1">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24" t="str" cm="1">
         <f t="array" ref="G16">$J$11</f>
         <v>CD</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" t="str" s="36" cm="1">
+      <c r="H16" s="102"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="24" t="str" cm="1">
         <f t="array" ref="L16">$J$6</f>
         <v>KP</v>
       </c>
-      <c r="M16" t="str" s="36" cm="1">
-        <f t="array" ref="M16">$J$7</f>
+      <c r="M16" s="25" t="str">
+        <f>$J$7</f>
         <v>AS</v>
       </c>
-      <c r="N16" t="str" s="36" cm="1">
+      <c r="N16" s="24" t="str" cm="1">
         <f t="array" ref="N16">$J$8</f>
         <v>SO</v>
       </c>
-      <c r="O16" t="str" s="36" cm="1">
+      <c r="O16" s="24" t="str" cm="1">
         <f t="array" ref="O16">$J$9</f>
         <v>HG</v>
       </c>
-      <c r="P16" t="s" s="39">
-        <v>33</v>
-      </c>
-      <c r="Q16" t="str" s="36" cm="1">
+      <c r="P16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="24" t="str" cm="1">
         <f t="array" ref="Q16">$J$11</f>
         <v>CD</v>
       </c>
-      <c r="R16" s="40"/>
-      <c r="S16" s="20"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="41">
-        <v>34</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="20"/>
-    </row>
-    <row r="18" ht="54" customHeight="1">
-      <c r="A18" s="48">
+      <c r="R16" s="26"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="1:19" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34">
         <v>45984</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="35">
         <v>1</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" t="s" s="51">
-        <v>35</v>
-      </c>
-      <c r="I18" s="52">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="38">
         <v>0.5</v>
       </c>
-      <c r="J18" t="s" s="51">
-        <v>36</v>
-      </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54" cm="1">
+      <c r="J18" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40" cm="1">
         <f t="array" ref="L18">B18*$I18</f>
         <v>0.5</v>
       </c>
-      <c r="M18" s="55" cm="1">
+      <c r="M18" s="41" cm="1">
         <f t="array" ref="M18">C18*$I18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="55" cm="1">
+      <c r="N18" s="41" cm="1">
         <f t="array" ref="N18">D18*$I18</f>
         <v>0</v>
       </c>
-      <c r="O18" s="55" cm="1">
+      <c r="O18" s="41" cm="1">
         <f t="array" ref="O18">E18*$I18</f>
         <v>0</v>
       </c>
-      <c r="P18" s="55">
+      <c r="P18" s="41">
         <v>3</v>
       </c>
-      <c r="Q18" s="56" cm="1">
+      <c r="Q18" s="42" cm="1">
         <f t="array" ref="Q18">G18*$I18</f>
         <v>0</v>
       </c>
-      <c r="R18" s="40"/>
-      <c r="S18" s="20"/>
-    </row>
-    <row r="19" ht="58.5" customHeight="1">
-      <c r="A19" s="57">
+      <c r="R18" s="26"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" spans="1:19" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43">
+        <v>45923</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="47">
+        <v>1</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="46">
+        <v>2</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" spans="1:19" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43">
+        <v>45917</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="47">
+        <v>1</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="46">
+        <v>1</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="49"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="43">
         <v>45986</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B21" s="44">
         <v>1</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C21" s="44">
         <v>1</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D21" s="44">
         <v>1</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E21" s="44">
         <v>1</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F21" s="44">
         <v>1</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G21" s="44">
         <v>1</v>
       </c>
-      <c r="H19" t="s" s="59">
+      <c r="H21" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="46">
+        <v>2</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49" cm="1">
+        <f t="array" ref="L21">B21*$I21</f>
+        <v>2</v>
+      </c>
+      <c r="M21" s="50" cm="1">
+        <f t="array" ref="M21">C21*$I21</f>
+        <v>2</v>
+      </c>
+      <c r="N21" s="50" cm="1">
+        <f t="array" ref="N21">D21*$I21</f>
+        <v>2</v>
+      </c>
+      <c r="O21" s="50" cm="1">
+        <f t="array" ref="O21">E21*$I21</f>
+        <v>2</v>
+      </c>
+      <c r="P21" s="50">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="51" cm="1">
+        <f t="array" ref="Q21">G21*$I21</f>
+        <v>2</v>
+      </c>
+      <c r="R21" s="52"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="53"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="56" cm="1">
+        <f t="array" ref="L22">SUM(L13:L21)</f>
+        <v>2.5</v>
+      </c>
+      <c r="M22" s="57" cm="1">
+        <f t="array" ref="M22">SUM(M13:M21)</f>
+        <v>2</v>
+      </c>
+      <c r="N22" s="57" cm="1">
+        <f t="array" ref="N22">SUM(N13:N21)</f>
+        <v>2</v>
+      </c>
+      <c r="O22" s="57" cm="1">
+        <f t="array" ref="O22">SUM(O13:O21)</f>
+        <v>2</v>
+      </c>
+      <c r="P22" s="57" cm="1">
+        <f t="array" ref="P22">SUM(P13:P21)</f>
+        <v>5</v>
+      </c>
+      <c r="Q22" s="58" cm="1">
+        <f t="array" ref="Q22">SUM(Q13:Q21)</f>
+        <v>2</v>
+      </c>
+      <c r="R22" s="59"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="64" cm="1">
+        <f t="array" ref="R23">SUM(L22:Q22)</f>
+        <v>15.5</v>
+      </c>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="43"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="40" cm="1">
+        <f t="array" ref="L25">B25*$I25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="41" cm="1">
+        <f t="array" ref="M25">C25*$I25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="41" cm="1">
+        <f t="array" ref="N25">D25*$I25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="41" cm="1">
+        <f t="array" ref="O25">E25*$I25</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="42" cm="1">
+        <f t="array" ref="Q25">G25*$I25</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="26"/>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="26" spans="1:19" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="43"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="53"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="56" cm="1">
+        <f t="array" ref="L27">SUM(L25:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="57" cm="1">
+        <f t="array" ref="M27">SUM(M25:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="57" cm="1">
+        <f t="array" ref="N27">SUM(N25:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="57" cm="1">
+        <f t="array" ref="O27">SUM(O25:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="57" cm="1">
+        <f t="array" ref="P27">SUM(P25:P26)</f>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="58" cm="1">
+        <f t="array" ref="Q27">SUM(Q25:Q26)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="59"/>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="74"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="64" cm="1">
+        <f t="array" ref="R28">SUM(L27:Q27)</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="1:19" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="43"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="40" cm="1">
+        <f t="array" ref="L31">B31*$I31</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="41" cm="1">
+        <f t="array" ref="M31">C31*$I31</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="41" cm="1">
+        <f t="array" ref="N31">D31*$I31</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="41" cm="1">
+        <f t="array" ref="O31">E31*$I31</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="41">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="42" cm="1">
+        <f t="array" ref="Q31">G31*$I31</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="26"/>
+      <c r="S31" s="14"/>
+    </row>
+    <row r="32" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="53"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="56" cm="1">
+        <f t="array" ref="L33">SUM(L31:L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="57" cm="1">
+        <f t="array" ref="M33">SUM(M31:M32)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="57" cm="1">
+        <f t="array" ref="N33">SUM(N31:N32)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="57" cm="1">
+        <f t="array" ref="O33">SUM(O31:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="57" cm="1">
+        <f t="array" ref="P33">SUM(P31:P32)</f>
+        <v>2</v>
+      </c>
+      <c r="Q33" s="58" cm="1">
+        <f t="array" ref="Q33">SUM(Q31:Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="59"/>
+      <c r="S33" s="14"/>
+    </row>
+    <row r="34" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="74"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="64" cm="1">
+        <f t="array" ref="R34">SUM(L33:Q33)</f>
+        <v>2</v>
+      </c>
+      <c r="S34" s="14"/>
+    </row>
+    <row r="35" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="14"/>
+    </row>
+    <row r="36" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="60">
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="14"/>
+    </row>
+    <row r="37" spans="1:19" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="43"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="40" cm="1">
+        <f t="array" ref="L37">B37*$I37</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="41" cm="1">
+        <f t="array" ref="M37">C37*$I37</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="41" cm="1">
+        <f t="array" ref="N37">D37*$I37</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="41" cm="1">
+        <f t="array" ref="O37">E37*$I37</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="42" cm="1">
+        <f t="array" ref="Q37">G37*$I37</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="26"/>
+      <c r="S37" s="14"/>
+    </row>
+    <row r="38" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="14"/>
+    </row>
+    <row r="39" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="53"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="56" cm="1">
+        <f t="array" ref="L39">SUM(L37:L38)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="57" cm="1">
+        <f t="array" ref="M39">SUM(M37:M38)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="57" cm="1">
+        <f t="array" ref="N39">SUM(N37:N38)</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="57" cm="1">
+        <f t="array" ref="O39">SUM(O37:O38)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="57" cm="1">
+        <f t="array" ref="P39">SUM(P37:P38)</f>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="58" cm="1">
+        <f t="array" ref="Q39">SUM(Q37:Q38)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="59"/>
+      <c r="S39" s="14"/>
+    </row>
+    <row r="40" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" s="61"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="64" cm="1">
+        <f t="array" ref="R40">SUM(L39:Q39)</f>
+        <v>1</v>
+      </c>
+      <c r="S40" s="14"/>
+    </row>
+    <row r="41" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="14"/>
+    </row>
+    <row r="42" spans="1:19" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="43"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="40" cm="1">
+        <f t="array" ref="L42">B42*$I42</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="41" cm="1">
+        <f t="array" ref="M42">C42*$I42</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="41" cm="1">
+        <f t="array" ref="N42">D42*$I42</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="41" cm="1">
+        <f t="array" ref="O42">E42*$I42</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="41">
         <v>2</v>
       </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="63" cm="1">
-        <f t="array" ref="L19">B19*$I19</f>
+      <c r="Q42" s="42" cm="1">
+        <f t="array" ref="Q42">G42*$I42</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="26"/>
+      <c r="S42" s="14"/>
+    </row>
+    <row r="43" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="43"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="14"/>
+    </row>
+    <row r="44" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="53"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="56" cm="1">
+        <f t="array" ref="L44">SUM(L42:L43)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="57" cm="1">
+        <f t="array" ref="M44">SUM(M42:M43)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="57" cm="1">
+        <f t="array" ref="N44">SUM(N42:N43)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="57" cm="1">
+        <f t="array" ref="O44">SUM(O42:O43)</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="57" cm="1">
+        <f t="array" ref="P44">SUM(P42:P43)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="64" cm="1">
-        <f t="array" ref="M19">C19*$I19</f>
-        <v>2</v>
-      </c>
-      <c r="N19" s="64" cm="1">
-        <f t="array" ref="N19">D19*$I19</f>
-        <v>2</v>
-      </c>
-      <c r="O19" s="64" cm="1">
-        <f t="array" ref="O19">E19*$I19</f>
-        <v>2</v>
-      </c>
-      <c r="P19" s="64">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="65" cm="1">
-        <f t="array" ref="Q19">G19*$I19</f>
-        <v>2</v>
-      </c>
-      <c r="R19" s="66"/>
-      <c r="S19" s="20"/>
-    </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="67"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="68"/>
-      <c r="K20" t="s" s="69">
-        <v>38</v>
-      </c>
-      <c r="L20" s="70" cm="1">
-        <f t="array" ref="L20">SUM(L13:L19)</f>
-        <v>2.5</v>
-      </c>
-      <c r="M20" s="71" cm="1">
-        <f t="array" ref="M20">SUM(M13:M19)</f>
-        <v>2</v>
-      </c>
-      <c r="N20" s="71" cm="1">
-        <f t="array" ref="N20">SUM(N13:N19)</f>
-        <v>2</v>
-      </c>
-      <c r="O20" s="71" cm="1">
-        <f t="array" ref="O20">SUM(O13:O19)</f>
-        <v>2</v>
-      </c>
-      <c r="P20" s="71" cm="1">
-        <f t="array" ref="P20">SUM(P13:P19)</f>
-        <v>5</v>
-      </c>
-      <c r="Q20" s="72" cm="1">
-        <f t="array" ref="Q20">SUM(Q13:Q19)</f>
-        <v>2</v>
-      </c>
-      <c r="R20" s="73"/>
-      <c r="S20" s="20"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="74"/>
-      <c r="K21" t="s" s="69">
-        <v>39</v>
-      </c>
-      <c r="L21" s="75"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="78" cm="1">
-        <f t="array" ref="R21">SUM(L20:Q20)</f>
-        <v>15.5</v>
-      </c>
-      <c r="S21" s="20"/>
-    </row>
-    <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" t="s" s="79">
-        <v>40</v>
-      </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="20"/>
-    </row>
-    <row r="23" ht="51" customHeight="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="54" cm="1">
-        <f t="array" ref="L23">B23*$I23</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="55" cm="1">
-        <f t="array" ref="M23">C23*$I23</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="55" cm="1">
-        <f t="array" ref="N23">D23*$I23</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="55" cm="1">
-        <f t="array" ref="O23">E23*$I23</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="55">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="56" cm="1">
-        <f t="array" ref="Q23">G23*$I23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="40"/>
-      <c r="S23" s="20"/>
-    </row>
-    <row r="24" ht="51" customHeight="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="20"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="67"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="68"/>
-      <c r="K25" t="s" s="69">
-        <v>38</v>
-      </c>
-      <c r="L25" s="70" cm="1">
-        <f t="array" ref="L25">SUM(L23:L24)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="71" cm="1">
-        <f t="array" ref="M25">SUM(M23:M24)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="71" cm="1">
-        <f t="array" ref="N25">SUM(N23:N24)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="71" cm="1">
-        <f t="array" ref="O25">SUM(O23:O24)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="71" cm="1">
-        <f t="array" ref="P25">SUM(P23:P24)</f>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="72" cm="1">
-        <f t="array" ref="Q25">SUM(Q23:Q24)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="73"/>
-      <c r="S25" s="20"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="74"/>
-      <c r="K26" t="s" s="69">
-        <v>39</v>
-      </c>
-      <c r="L26" s="88"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="78" cm="1">
-        <f t="array" ref="R26">SUM(L25:Q25)</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="20"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="20"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" t="s" s="79">
-        <v>41</v>
-      </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="20"/>
-    </row>
-    <row r="29" ht="28.8" customHeight="1">
-      <c r="A29" s="57"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="54" cm="1">
-        <f t="array" ref="L29">B29*$I29</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="55" cm="1">
-        <f t="array" ref="M29">C29*$I29</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="55" cm="1">
-        <f t="array" ref="N29">D29*$I29</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="55" cm="1">
-        <f t="array" ref="O29">E29*$I29</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="55">
-        <v>2</v>
-      </c>
-      <c r="Q29" s="56" cm="1">
-        <f t="array" ref="Q29">G29*$I29</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="40"/>
-      <c r="S29" s="20"/>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" s="57"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="20"/>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="68"/>
-      <c r="K31" t="s" s="69">
-        <v>38</v>
-      </c>
-      <c r="L31" s="70" cm="1">
-        <f t="array" ref="L31">SUM(L29:L30)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="71" cm="1">
-        <f t="array" ref="M31">SUM(M29:M30)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="71" cm="1">
-        <f t="array" ref="N31">SUM(N29:N30)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="71" cm="1">
-        <f t="array" ref="O31">SUM(O29:O30)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="71" cm="1">
-        <f t="array" ref="P31">SUM(P29:P30)</f>
-        <v>2</v>
-      </c>
-      <c r="Q31" s="72" cm="1">
-        <f t="array" ref="Q31">SUM(Q29:Q30)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="73"/>
-      <c r="S31" s="20"/>
-    </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="74"/>
-      <c r="K32" t="s" s="69">
-        <v>39</v>
-      </c>
-      <c r="L32" s="88"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="89"/>
-      <c r="O32" s="89"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="78" cm="1">
-        <f t="array" ref="R32">SUM(L31:Q31)</f>
-        <v>2</v>
-      </c>
-      <c r="S32" s="20"/>
-    </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="20"/>
-    </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" t="s" s="79">
-        <v>42</v>
-      </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="20"/>
-    </row>
-    <row r="35" ht="43.2" customHeight="1">
-      <c r="A35" s="57"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="54" cm="1">
-        <f t="array" ref="L35">B35*$I35</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="55" cm="1">
-        <f t="array" ref="M35">C35*$I35</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="55" cm="1">
-        <f t="array" ref="N35">D35*$I35</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="55" cm="1">
-        <f t="array" ref="O35">E35*$I35</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="55">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="56" cm="1">
-        <f t="array" ref="Q35">G35*$I35</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="40"/>
-      <c r="S35" s="20"/>
-    </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" s="57"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="20"/>
-    </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" s="67"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="68"/>
-      <c r="K37" t="s" s="69">
-        <v>38</v>
-      </c>
-      <c r="L37" s="70" cm="1">
-        <f t="array" ref="L37">SUM(L35:L36)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="71" cm="1">
-        <f t="array" ref="M37">SUM(M35:M36)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="71" cm="1">
-        <f t="array" ref="N37">SUM(N35:N36)</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="71" cm="1">
-        <f t="array" ref="O37">SUM(O35:O36)</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="71" cm="1">
-        <f t="array" ref="P37">SUM(P35:P36)</f>
-        <v>1</v>
-      </c>
-      <c r="Q37" s="72" cm="1">
-        <f t="array" ref="Q37">SUM(Q35:Q36)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="73"/>
-      <c r="S37" s="20"/>
-    </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="74"/>
-      <c r="K38" t="s" s="97">
-        <v>43</v>
-      </c>
-      <c r="L38" s="75"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="78" cm="1">
-        <f t="array" ref="R38">SUM(L37:Q37)</f>
-        <v>1</v>
-      </c>
-      <c r="S38" s="20"/>
-    </row>
-    <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" t="s" s="79">
-        <v>44</v>
-      </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="20"/>
-    </row>
-    <row r="40" ht="57.6" customHeight="1">
-      <c r="A40" s="57"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="54" cm="1">
-        <f t="array" ref="L40">B40*$I40</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="55" cm="1">
-        <f t="array" ref="M40">C40*$I40</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="55" cm="1">
-        <f t="array" ref="N40">D40*$I40</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="55" cm="1">
-        <f t="array" ref="O40">E40*$I40</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="55">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="56" cm="1">
-        <f t="array" ref="Q40">G40*$I40</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="40"/>
-      <c r="S40" s="20"/>
-    </row>
-    <row r="41" ht="13.55" customHeight="1">
-      <c r="A41" s="57"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="20"/>
-    </row>
-    <row r="42" ht="13.55" customHeight="1">
-      <c r="A42" s="67"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="68"/>
-      <c r="K42" t="s" s="69">
-        <v>38</v>
-      </c>
-      <c r="L42" s="70" cm="1">
-        <f t="array" ref="L42">SUM(L40:L41)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="71" cm="1">
-        <f t="array" ref="M42">SUM(M40:M41)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="71" cm="1">
-        <f t="array" ref="N42">SUM(N40:N41)</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="71" cm="1">
-        <f t="array" ref="O42">SUM(O40:O41)</f>
-        <v>0</v>
-      </c>
-      <c r="P42" s="71" cm="1">
-        <f t="array" ref="P42">SUM(P40:P41)</f>
-        <v>2</v>
-      </c>
-      <c r="Q42" s="72" cm="1">
-        <f t="array" ref="Q42">SUM(Q40:Q41)</f>
-        <v>0</v>
-      </c>
-      <c r="R42" s="73"/>
-      <c r="S42" s="20"/>
-    </row>
-    <row r="43" ht="13.55" customHeight="1">
-      <c r="A43" s="20"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="74"/>
-      <c r="K43" t="s" s="97">
-        <v>45</v>
-      </c>
-      <c r="L43" s="88"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="90"/>
-      <c r="R43" s="78" cm="1">
-        <f t="array" ref="R43">SUM(L42:Q42)</f>
-        <v>2</v>
-      </c>
-      <c r="S43" s="20"/>
-    </row>
-    <row r="44" ht="13.55" customHeight="1">
-      <c r="A44" s="20"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="99"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="20"/>
-    </row>
-    <row r="45" ht="28.8" customHeight="1">
-      <c r="A45" s="20"/>
+      <c r="Q44" s="58" cm="1">
+        <f t="array" ref="Q44">SUM(Q42:Q43)</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="59"/>
+      <c r="S44" s="14"/>
+    </row>
+    <row r="45" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3676,62 +3650,109 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="74"/>
-      <c r="K45" t="s" s="101">
-        <v>46</v>
-      </c>
-      <c r="L45" s="70" cm="1">
-        <f t="array" ref="L45">L20+L25+L31+L37+L42</f>
+      <c r="J45" s="60"/>
+      <c r="K45" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" s="74"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="75"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="64" cm="1">
+        <f t="array" ref="R45">SUM(L44:Q44)</f>
+        <v>2</v>
+      </c>
+      <c r="S45" s="14"/>
+    </row>
+    <row r="46" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="86"/>
+      <c r="S46" s="14"/>
+    </row>
+    <row r="47" spans="1:19" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="L47" s="56" cm="1">
+        <f t="array" ref="L47">L22+L27+L33+L39+L44</f>
         <v>2.5</v>
       </c>
-      <c r="M45" s="71" cm="1">
-        <f t="array" ref="M45">M20+M25+M31+M37+M42</f>
+      <c r="M47" s="57" cm="1">
+        <f t="array" ref="M47">M22+M27+M33+M39+M44</f>
         <v>2</v>
       </c>
-      <c r="N45" s="71" cm="1">
-        <f t="array" ref="N45">N20+N25+N31+N37+N42</f>
+      <c r="N47" s="57" cm="1">
+        <f t="array" ref="N47">N22+N27+N33+N39+N44</f>
         <v>2</v>
       </c>
-      <c r="O45" s="71" cm="1">
-        <f t="array" ref="O45">O20+O25+O31+O37+O42</f>
+      <c r="O47" s="57" cm="1">
+        <f t="array" ref="O47">O22+O27+O33+O39+O44</f>
         <v>2</v>
       </c>
-      <c r="P45" s="71" cm="1">
-        <f t="array" ref="P45">P20+P25+P31+P37+P42</f>
+      <c r="P47" s="57" cm="1">
+        <f t="array" ref="P47">P22+P27+P33+P39+P44</f>
         <v>11</v>
       </c>
-      <c r="Q45" s="72" cm="1">
-        <f t="array" ref="Q45">Q20+Q25+Q31+Q37+Q42</f>
+      <c r="Q47" s="58" cm="1">
+        <f t="array" ref="Q47">Q22+Q27+Q33+Q39+Q44</f>
         <v>2</v>
       </c>
-      <c r="R45" s="73"/>
-      <c r="S45" s="20"/>
-    </row>
-    <row r="46" ht="28.8" customHeight="1">
-      <c r="A46" s="102"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="103"/>
-      <c r="K46" t="s" s="104">
-        <v>47</v>
-      </c>
-      <c r="L46" s="75"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="77"/>
-      <c r="R46" s="105" cm="1">
-        <f t="array" ref="R46">SUM(L45:Q45)</f>
+      <c r="R47" s="59"/>
+      <c r="S47" s="14"/>
+    </row>
+    <row r="48" spans="1:19" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="88"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" s="61"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="91" cm="1">
+        <f t="array" ref="R48">SUM(L47:Q47)</f>
         <v>21.5</v>
       </c>
-      <c r="S46" s="20"/>
+      <c r="S48" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3747,7 +3768,7 @@
     <mergeCell ref="K3:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
